--- a/Шаблон образовательной программы.xlsx
+++ b/Шаблон образовательной программы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1\online.edu.loader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D7D09-CA25-4AD0-B3EC-E54DF3E1738C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720398EC-4053-4792-8DEE-D5FF440C5A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="35610" yWindow="2115" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,18 @@
   </x:si>
   <x:si>
     <x:t>7ff25c44-1b02-4cc6-874b-73a2020bb372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDUPROb191289c-ca2a-4fef-8c9a-ea1278e9fd26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test 4-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c904f87b-5c32-4aeb-926c-d474ccd500d8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -670,8 +682,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:G78"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <x:selection activeCell="G5" sqref="G5"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <x:selection activeCell="C7" sqref="C7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,13 +813,27 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="12"/>
-      <x:c r="B6" s="3"/>
-      <x:c r="C6" s="3"/>
-      <x:c r="D6" s="3"/>
-      <x:c r="E6" s="3"/>
-      <x:c r="F6" s="3"/>
-      <x:c r="G6" s="13"/>
+      <x:c r="A6" s="12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="2">
+        <x:v>2023</x:v>
+      </x:c>
+      <x:c r="F6" s="2">
+        <x:v>2029</x:v>
+      </x:c>
+      <x:c r="G6" s="13" t="s">
+        <x:v>31</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="12"/>
